--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H2">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J2">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N2">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O2">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P2">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q2">
-        <v>868.8909807985796</v>
+        <v>847.7187142688568</v>
       </c>
       <c r="R2">
-        <v>7820.018827187216</v>
+        <v>7629.468428419712</v>
       </c>
       <c r="S2">
-        <v>0.02239399555195981</v>
+        <v>0.03819532272787549</v>
       </c>
       <c r="T2">
-        <v>0.02239399555195981</v>
+        <v>0.03819532272787549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H3">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J3">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>158.044098</v>
       </c>
       <c r="O3">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P3">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q3">
-        <v>1732.662276857841</v>
+        <v>1457.992908346165</v>
       </c>
       <c r="R3">
-        <v>15593.96049172057</v>
+        <v>13121.93617511549</v>
       </c>
       <c r="S3">
-        <v>0.04465604106667289</v>
+        <v>0.06569220276948348</v>
       </c>
       <c r="T3">
-        <v>0.0446560410666729</v>
+        <v>0.0656922027694835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H4">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J4">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N4">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O4">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P4">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q4">
-        <v>1374.58800263126</v>
+        <v>184.77214663992</v>
       </c>
       <c r="R4">
-        <v>12371.29202368134</v>
+        <v>1662.94931975928</v>
       </c>
       <c r="S4">
-        <v>0.03542736464868147</v>
+        <v>0.008325204638334537</v>
       </c>
       <c r="T4">
-        <v>0.03542736464868147</v>
+        <v>0.008325204638334541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H5">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J5">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N5">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O5">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P5">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q5">
-        <v>479.0176746975649</v>
+        <v>559.5903277421085</v>
       </c>
       <c r="R5">
-        <v>4311.159072278084</v>
+        <v>5036.312949678976</v>
       </c>
       <c r="S5">
-        <v>0.01234576018573507</v>
+        <v>0.02521323736723441</v>
       </c>
       <c r="T5">
-        <v>0.01234576018573507</v>
+        <v>0.02521323736723441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.88947133333333</v>
+        <v>27.67568533333333</v>
       </c>
       <c r="H6">
-        <v>98.668414</v>
+        <v>83.027056</v>
       </c>
       <c r="I6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="J6">
-        <v>0.1342547118204999</v>
+        <v>0.151580065893459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N6">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O6">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P6">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q6">
-        <v>753.9475846566213</v>
+        <v>314.1404033876391</v>
       </c>
       <c r="R6">
-        <v>6785.528261909592</v>
+        <v>2827.263630488752</v>
       </c>
       <c r="S6">
-        <v>0.01943155036745068</v>
+        <v>0.01415409839053103</v>
       </c>
       <c r="T6">
-        <v>0.01943155036745068</v>
+        <v>0.01415409839053104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J7">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N7">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O7">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P7">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q7">
-        <v>1176.86902487525</v>
+        <v>1364.498688226887</v>
       </c>
       <c r="R7">
-        <v>10591.82122387725</v>
+        <v>12280.48819404198</v>
       </c>
       <c r="S7">
-        <v>0.03033153789221459</v>
+        <v>0.06147967112362165</v>
       </c>
       <c r="T7">
-        <v>0.0303315378922146</v>
+        <v>0.06147967112362165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J8">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>158.044098</v>
       </c>
       <c r="O8">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P8">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q8">
         <v>2346.803694900491</v>
@@ -948,10 +948,10 @@
         <v>21121.23325410442</v>
       </c>
       <c r="S8">
-        <v>0.06048435611176774</v>
+        <v>0.1057389945472718</v>
       </c>
       <c r="T8">
-        <v>0.06048435611176774</v>
+        <v>0.1057389945472718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J9">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N9">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O9">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P9">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q9">
-        <v>1861.81014420827</v>
+        <v>297.4115676194399</v>
       </c>
       <c r="R9">
-        <v>16756.29129787443</v>
+        <v>2676.70410857496</v>
       </c>
       <c r="S9">
-        <v>0.0479845792042566</v>
+        <v>0.01340035393464853</v>
       </c>
       <c r="T9">
-        <v>0.0479845792042566</v>
+        <v>0.01340035393464854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J10">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N10">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O10">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P10">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q10">
-        <v>648.8052887845726</v>
+        <v>900.7236189272035</v>
       </c>
       <c r="R10">
-        <v>5839.247599061152</v>
+        <v>8106.512570344832</v>
       </c>
       <c r="S10">
-        <v>0.016721709710666</v>
+        <v>0.0405835434967563</v>
       </c>
       <c r="T10">
-        <v>0.016721709710666</v>
+        <v>0.0405835434967563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1818412381722327</v>
+        <v>0.2439851776203359</v>
       </c>
       <c r="J11">
-        <v>0.1818412381722327</v>
+        <v>0.243985177620336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N11">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O11">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P11">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q11">
-        <v>1021.183990132331</v>
+        <v>505.6443383005849</v>
       </c>
       <c r="R11">
-        <v>9190.655911190976</v>
+        <v>4550.799044705264</v>
       </c>
       <c r="S11">
-        <v>0.02631905525332778</v>
+        <v>0.02278261451803768</v>
       </c>
       <c r="T11">
-        <v>0.02631905525332778</v>
+        <v>0.02278261451803768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H12">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J12">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N12">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O12">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P12">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q12">
-        <v>2446.907961240286</v>
+        <v>1655.879008103581</v>
       </c>
       <c r="R12">
-        <v>22022.17165116257</v>
+        <v>14902.91107293223</v>
       </c>
       <c r="S12">
-        <v>0.06306435123737629</v>
+        <v>0.0746082775433122</v>
       </c>
       <c r="T12">
-        <v>0.0630643512373763</v>
+        <v>0.0746082775433122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H13">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J13">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>158.044098</v>
       </c>
       <c r="O13">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P13">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q13">
-        <v>4879.398236459521</v>
+        <v>2847.949219779302</v>
       </c>
       <c r="R13">
-        <v>43914.58412813569</v>
+        <v>25631.54297801372</v>
       </c>
       <c r="S13">
-        <v>0.1257571143195525</v>
+        <v>0.1283189078300473</v>
       </c>
       <c r="T13">
-        <v>0.1257571143195525</v>
+        <v>0.1283189078300473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H14">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J14">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N14">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O14">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P14">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q14">
-        <v>3871.015353355953</v>
+        <v>360.9219824374949</v>
       </c>
       <c r="R14">
-        <v>34839.13818020358</v>
+        <v>3248.297841937454</v>
       </c>
       <c r="S14">
-        <v>0.09976798300397671</v>
+        <v>0.01626191726895462</v>
       </c>
       <c r="T14">
-        <v>0.09976798300397671</v>
+        <v>0.01626191726895462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H15">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J15">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N15">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O15">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P15">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q15">
-        <v>1348.974943571191</v>
+        <v>1093.067619304771</v>
       </c>
       <c r="R15">
-        <v>12140.77449214072</v>
+        <v>9837.608573742935</v>
       </c>
       <c r="S15">
-        <v>0.03476723726407436</v>
+        <v>0.0492499101175854</v>
       </c>
       <c r="T15">
-        <v>0.03476723726407436</v>
+        <v>0.0492499101175854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.62095133333332</v>
+        <v>54.059897</v>
       </c>
       <c r="H16">
-        <v>277.862854</v>
+        <v>162.179691</v>
       </c>
       <c r="I16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="J16">
-        <v>0.3780784131119371</v>
+        <v>0.2960867147735651</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N16">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O16">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P16">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q16">
-        <v>2123.212679177101</v>
+        <v>613.6215832104497</v>
       </c>
       <c r="R16">
-        <v>19108.91411259391</v>
+        <v>5522.594248894047</v>
       </c>
       <c r="S16">
-        <v>0.05472172728695723</v>
+        <v>0.02764770201366553</v>
       </c>
       <c r="T16">
-        <v>0.05472172728695724</v>
+        <v>0.02764770201366554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H17">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J17">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N17">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O17">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P17">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q17">
-        <v>330.68107645296</v>
+        <v>349.6069177162365</v>
       </c>
       <c r="R17">
-        <v>2976.12968807664</v>
+        <v>3146.462259446128</v>
       </c>
       <c r="S17">
-        <v>0.008522669378382587</v>
+        <v>0.01575209892775165</v>
       </c>
       <c r="T17">
-        <v>0.008522669378382589</v>
+        <v>0.01575209892775165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H18">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J18">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>158.044098</v>
       </c>
       <c r="O18">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P18">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q18">
-        <v>659.4137118493201</v>
+        <v>601.2895529605747</v>
       </c>
       <c r="R18">
-        <v>5934.72340664388</v>
+        <v>5411.605976645174</v>
       </c>
       <c r="S18">
-        <v>0.01699512143224576</v>
+        <v>0.02709206266377794</v>
       </c>
       <c r="T18">
-        <v>0.01699512143224577</v>
+        <v>0.02709206266377794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H19">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J19">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N19">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O19">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P19">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q19">
-        <v>523.13840336064</v>
+        <v>76.20171594573</v>
       </c>
       <c r="R19">
-        <v>4708.245630245759</v>
+        <v>685.81544351157</v>
       </c>
       <c r="S19">
-        <v>0.01348288719391513</v>
+        <v>0.003433390208301999</v>
       </c>
       <c r="T19">
-        <v>0.01348288719391513</v>
+        <v>0.003433390208301999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H20">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J20">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N20">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O20">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P20">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q20">
-        <v>182.30374559004</v>
+        <v>230.7801472030382</v>
       </c>
       <c r="R20">
-        <v>1640.73371031036</v>
+        <v>2077.021324827344</v>
       </c>
       <c r="S20">
-        <v>0.004698528766056266</v>
+        <v>0.01039816870058037</v>
       </c>
       <c r="T20">
-        <v>0.004698528766056266</v>
+        <v>0.01039816870058037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.51702</v>
+        <v>11.41370466666667</v>
       </c>
       <c r="H21">
-        <v>37.55106</v>
+        <v>34.241114</v>
       </c>
       <c r="I21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="J21">
-        <v>0.0510944337146668</v>
+        <v>0.0625129995743248</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N21">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O21">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P21">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q21">
-        <v>286.93611096552</v>
+        <v>129.5543631512376</v>
       </c>
       <c r="R21">
-        <v>2582.42499868968</v>
+        <v>1165.989268361138</v>
       </c>
       <c r="S21">
-        <v>0.007395226944067049</v>
+        <v>0.005837279073912844</v>
       </c>
       <c r="T21">
-        <v>0.007395226944067051</v>
+        <v>0.005837279073912845</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H22">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J22">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.41851466666667</v>
+        <v>30.63045066666666</v>
       </c>
       <c r="N22">
-        <v>79.255544</v>
+        <v>91.891352</v>
       </c>
       <c r="O22">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="P22">
-        <v>0.1668023062155229</v>
+        <v>0.2519811724763454</v>
       </c>
       <c r="Q22">
-        <v>1648.609884676335</v>
+        <v>1374.844143359854</v>
       </c>
       <c r="R22">
-        <v>14837.48896208701</v>
+        <v>12373.59729023869</v>
       </c>
       <c r="S22">
-        <v>0.04248975215558961</v>
+        <v>0.06194580215378446</v>
       </c>
       <c r="T22">
-        <v>0.04248975215558962</v>
+        <v>0.06194580215378447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H23">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J23">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>158.044098</v>
       </c>
       <c r="O23">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="P23">
-        <v>0.3326217788644806</v>
+        <v>0.4333828619368496</v>
       </c>
       <c r="Q23">
-        <v>3287.505820129825</v>
+        <v>2364.596861387901</v>
       </c>
       <c r="R23">
-        <v>29587.55238116843</v>
+        <v>21281.37175249111</v>
       </c>
       <c r="S23">
-        <v>0.08472914593424173</v>
+        <v>0.1065406941262691</v>
       </c>
       <c r="T23">
-        <v>0.08472914593424175</v>
+        <v>0.1065406941262691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H24">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J24">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>41.79416533333333</v>
+        <v>6.676334999999999</v>
       </c>
       <c r="N24">
-        <v>125.382496</v>
+        <v>20.029005</v>
       </c>
       <c r="O24">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039034</v>
       </c>
       <c r="P24">
-        <v>0.2638817227960554</v>
+        <v>0.05492281976039035</v>
       </c>
       <c r="Q24">
-        <v>2608.105525980505</v>
+        <v>299.6665042165799</v>
       </c>
       <c r="R24">
-        <v>23472.94973382454</v>
+        <v>2696.99853794922</v>
       </c>
       <c r="S24">
-        <v>0.06721890874522551</v>
+        <v>0.01350195371015065</v>
       </c>
       <c r="T24">
-        <v>0.06721890874522551</v>
+        <v>0.01350195371015065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H25">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J25">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.56446866666667</v>
+        <v>20.21956533333333</v>
       </c>
       <c r="N25">
-        <v>43.693406</v>
+        <v>60.658696</v>
       </c>
       <c r="O25">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="P25">
-        <v>0.09195774225221602</v>
+        <v>0.1663361024328623</v>
       </c>
       <c r="Q25">
-        <v>908.8749807430039</v>
+        <v>907.552790598247</v>
       </c>
       <c r="R25">
-        <v>8179.874826687034</v>
+        <v>8167.975115384223</v>
       </c>
       <c r="S25">
-        <v>0.02342450632568432</v>
+        <v>0.04089124275070582</v>
       </c>
       <c r="T25">
-        <v>0.02342450632568432</v>
+        <v>0.04089124275070583</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.40357966666667</v>
+        <v>44.88488133333333</v>
       </c>
       <c r="H26">
-        <v>187.210739</v>
+        <v>134.654644</v>
       </c>
       <c r="I26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383152</v>
       </c>
       <c r="J26">
-        <v>0.2547312031806635</v>
+        <v>0.2458350421383153</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.923676</v>
+        <v>11.35077233333333</v>
       </c>
       <c r="N26">
-        <v>68.771028</v>
+        <v>34.052317</v>
       </c>
       <c r="O26">
-        <v>0.144736449871725</v>
+        <v>0.09337704339355231</v>
       </c>
       <c r="P26">
-        <v>0.1447364498717251</v>
+        <v>0.09337704339355232</v>
       </c>
       <c r="Q26">
-        <v>1430.519441518855</v>
+        <v>509.4780692233498</v>
       </c>
       <c r="R26">
-        <v>12874.67497366969</v>
+        <v>4585.302623010148</v>
       </c>
       <c r="S26">
-        <v>0.03686889001992231</v>
+        <v>0.02295534939740522</v>
       </c>
       <c r="T26">
-        <v>0.03686889001992232</v>
+        <v>0.02295534939740523</v>
       </c>
     </row>
   </sheetData>
